--- a/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm\src\main\resources\_vfs\nop\orm\imp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm-model\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB9571B-E833-4187-85D7-6FB897CED4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D607B83-E474-4D20-A572-0BFC42F59258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,22 @@
   <si>
     <t>代码</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,23 +589,89 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -600,136 +682,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B8EA3-49A5-40B5-854E-E1175EA60D43}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1529,145 +1548,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="49"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="57" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1688,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1703,137 +1722,144 @@
     <col min="5" max="5" width="4.75" customWidth="1"/>
     <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="9" max="9" width="6.25" customWidth="1"/>
+    <col min="10" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="6.08203125" customWidth="1"/>
+    <col min="13" max="13" width="8.25" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="1"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="1"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="14"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="1"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="1"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="35"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1859,31 +1885,34 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -1894,16 +1923,17 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O8" s="9"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -1914,16 +1944,17 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O9" s="9"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -1934,16 +1965,17 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O10" s="9"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -1954,16 +1986,17 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="9"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -1974,16 +2007,17 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O12" s="9"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -1994,16 +2028,17 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O13" s="9"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2012,366 +2047,474 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="O14" s="9"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="39" t="s">
+      <c r="H18" s="34"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="19" t="s">
+      <c r="M18" s="54"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="39" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="19" t="s">
+      <c r="M19" s="54"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="17" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="19" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="54"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="39" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="30" t="s">
+      <c r="M21" s="54"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="46"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="39" t="s">
+      <c r="H23" s="54"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="66"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="37"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="57"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="37"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="G25" s="61"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="50"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="19" t="s">
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="52"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="46"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="50"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="52"/>
+      <c r="J33" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="52"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="A17:P17"/>
+  <mergeCells count="72">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:Q18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm-model\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D607B83-E474-4D20-A572-0BFC42F59258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098BFEF-7A6C-4F46-AA51-88639A7A6C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,7 +661,85 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,84 +750,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1732,15 +1732,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1755,15 +1755,15 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1778,15 +1778,15 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="5"/>
       <c r="I3" s="34"/>
       <c r="J3" s="36"/>
@@ -1799,22 +1799,22 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="13"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1839,25 +1839,25 @@
       <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2077,34 +2077,34 @@
       <c r="Q15" s="35"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="34"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -2115,21 +2115,21 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="46"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="34"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
@@ -2140,21 +2140,21 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="54"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="34"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -2165,21 +2165,21 @@
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="54"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="34"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -2190,278 +2190,294 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="60"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="53"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="54"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="54"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="66"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="64"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="63"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="18"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="58"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="63"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="18"/>
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="58"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="50"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="51" t="s">
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="52"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="45"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="50"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="51" t="s">
+      <c r="I33" s="45"/>
+      <c r="J33" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="52"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="45"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="34"/>
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
       <c r="K34" s="35"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="46"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:K21"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="L22:M22"/>
@@ -2478,43 +2494,25 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm-model\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098BFEF-7A6C-4F46-AA51-88639A7A6C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6356A04C-4092-4080-A0BA-817B3AD19515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>属性路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deltaDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCoreModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowIdAsColName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +673,40 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,83 +718,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1259,17 +1271,23 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
@@ -1707,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:Q33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1719,107 +1737,112 @@
     <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="6.25" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="6.08203125" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.08203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="10" max="10" width="6.25" customWidth="1"/>
+    <col min="11" max="11" width="4.75" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="6.08203125" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="36"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="1"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="14"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="1"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="14"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="1"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1836,30 +1859,32 @@
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
-      <c r="Q5" s="35"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1873,191 +1898,201 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2074,445 +2109,461 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
-      <c r="Q15" s="35"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="Q15" s="36"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="47"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="34"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="60" t="s">
+      <c r="K18" s="36"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="34"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="60" t="s">
+      <c r="K19" s="36"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="34"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="36"/>
+      <c r="H20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="60" t="s">
+      <c r="K20" s="36"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="62"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="34"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="60" t="s">
+      <c r="K21" s="36"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="62"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="15" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="H23" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="60" t="s">
+      <c r="I23" s="51"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="63"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="66"/>
       <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="64"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="66"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="55"/>
       <c r="N24" s="57"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="58"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="57"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="58"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="57"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="48"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="I29" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="44" t="s">
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="45"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="48"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="47"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="I33" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="45"/>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="49"/>
+      <c r="K33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="45"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="45"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L33" s="49"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="49"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="43"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A17:R17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:R18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:R19"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm-model\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6356A04C-4092-4080-A0BA-817B3AD19515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D03D33-CB67-4247-B2F7-B62C283A20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -673,7 +673,85 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,84 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1727,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:R17"/>
     </sheetView>
   </sheetViews>
@@ -1737,7 +1737,7 @@
     <col min="2" max="2" width="4.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
     <col min="7" max="7" width="15.08203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
@@ -1751,16 +1751,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1775,16 +1775,16 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1799,16 +1799,16 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
       <c r="K3" s="36"/>
@@ -1821,23 +1821,23 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1863,26 +1863,26 @@
       <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2113,35 +2113,35 @@
       <c r="R15" s="35"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="34"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -2153,21 +2153,21 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="34"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
@@ -2179,21 +2179,21 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="50" t="s">
+      <c r="M19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="34"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -2205,21 +2205,21 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="54"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="43"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="34"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -2231,286 +2231,304 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="50" t="s">
+      <c r="M21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="54"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="51"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="66"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="64"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="18"/>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="58"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="63"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="18"/>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="58"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="48" t="s">
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="45"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="54"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="48"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="48" t="s">
+      <c r="J33" s="45"/>
+      <c r="K33" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="49"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="45"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="34"/>
       <c r="J34" s="35"/>
       <c r="K34" s="34"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="A28:R28"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="M22:N22"/>
@@ -2527,43 +2545,25 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm-model\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D03D33-CB67-4247-B2F7-B62C283A20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058BD91A-0A9B-44E2-9186-62C8C1642330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -1084,14 +1084,14 @@
       <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1121,37 +1121,37 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1171,14 +1171,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1270,38 +1270,38 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1320,13 +1320,13 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1556,17 +1556,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B8EA3-49A5-40B5-854E-E1175EA60D43}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="29">
+        <v>1</v>
+      </c>
       <c r="B1" s="32" t="s">
         <v>61</v>
       </c>
@@ -1578,7 +1580,7 @@
       </c>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="32" t="s">
         <v>63</v>
@@ -1591,7 +1593,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="32" t="s">
         <v>65</v>
@@ -1602,7 +1604,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="37" t="s">
         <v>66</v>
@@ -1613,7 +1615,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="22" t="s">
         <v>67</v>
@@ -1634,16 +1636,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
       <c r="C6" s="21"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1652,7 +1656,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1661,7 +1665,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1670,7 +1674,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1679,7 +1683,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1688,7 +1692,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="21"/>
       <c r="C12" s="25"/>
@@ -1697,7 +1701,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -1727,30 +1731,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="10" max="10" width="6.25" customWidth="1"/>
-    <col min="11" max="11" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="6.08203125" customWidth="1"/>
-    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1778,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1802,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
@@ -1820,7 +1824,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -1842,7 +1846,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1862,7 +1866,7 @@
       <c r="Q5" s="36"/>
       <c r="R5" s="35"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
@@ -1884,7 +1888,7 @@
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -1962,7 +1966,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -1984,7 +1988,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -2028,7 +2032,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -2050,7 +2054,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -2072,7 +2076,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2092,7 +2096,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2112,7 +2116,7 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="35"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>13</v>
       </c>
@@ -2134,7 +2138,7 @@
       <c r="Q17" s="47"/>
       <c r="R17" s="48"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>1</v>
       </c>
@@ -2162,7 +2166,7 @@
       <c r="Q18" s="42"/>
       <c r="R18" s="43"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="44" t="s">
         <v>4</v>
@@ -2188,7 +2192,7 @@
       <c r="Q19" s="42"/>
       <c r="R19" s="43"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="44" t="s">
         <v>44</v>
@@ -2214,7 +2218,7 @@
       <c r="Q20" s="42"/>
       <c r="R20" s="43"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="44" t="s">
         <v>10</v>
@@ -2240,7 +2244,7 @@
       <c r="Q21" s="42"/>
       <c r="R21" s="43"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="51" t="s">
         <v>19</v>
@@ -2262,7 +2266,7 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="53"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
@@ -2292,7 +2296,7 @@
       <c r="Q23" s="65"/>
       <c r="R23" s="64"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -2314,7 +2318,7 @@
       <c r="Q24" s="59"/>
       <c r="R24" s="58"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
@@ -2334,7 +2338,7 @@
       <c r="Q25" s="59"/>
       <c r="R25" s="58"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>48</v>
       </c>
@@ -2356,7 +2360,7 @@
       <c r="Q28" s="47"/>
       <c r="R28" s="48"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2390,7 +2394,7 @@
       <c r="Q29" s="50"/>
       <c r="R29" s="45"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>1</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="Q30" s="42"/>
       <c r="R30" s="43"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>72</v>
       </c>
@@ -2434,7 +2438,7 @@
       <c r="Q32" s="47"/>
       <c r="R32" s="48"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="Q33" s="50"/>
       <c r="R33" s="45"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>1</v>
       </c>

--- a/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm-model\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058BD91A-0A9B-44E2-9186-62C8C1642330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E1611F-CB07-4BDF-B1A8-8E0BD069AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,10 @@
   </si>
   <si>
     <t>allowIdAsColName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +677,40 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -685,83 +722,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1556,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B8EA3-49A5-40B5-854E-E1175EA60D43}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1731,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1755,16 +1759,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1779,16 +1783,16 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1803,16 +1807,16 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
       <c r="K3" s="36"/>
@@ -1825,23 +1829,23 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1867,26 +1871,26 @@
       <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1902,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>46</v>
@@ -2117,35 +2121,35 @@
       <c r="R15" s="35"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="48"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="47"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="34"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -2157,21 +2161,21 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="60" t="s">
+      <c r="M18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="34"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
@@ -2183,21 +2187,21 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="34"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -2209,21 +2213,21 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="60" t="s">
+      <c r="M20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="34"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -2235,279 +2239,311 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="60" t="s">
+      <c r="K23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="64"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="66"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="56"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="18"/>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="58"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="56"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="18"/>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="58"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="57"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="48"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="44" t="s">
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="45"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="49"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="43"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="54"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="48"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="47"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="45"/>
-      <c r="K33" s="44" t="s">
+      <c r="J33" s="49"/>
+      <c r="K33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="45"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="49"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>1</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="34"/>
       <c r="J34" s="35"/>
       <c r="K34" s="34"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="43"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="A15:R15"/>
     <mergeCell ref="A17:R17"/>
@@ -2524,50 +2560,18 @@
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="O24:R24"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
+++ b/nop-orm-model/src/main/resources/_vfs/nop/orm/imp/template.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-orm-model\src\main\resources\_vfs\nop\orm\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E1611F-CB07-4BDF-B1A8-8E0BD069AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BE399E-AC87-4E09-8CA4-91CB1F83B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,10 @@
   </si>
   <si>
     <t>控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +681,85 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,84 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1736,7 +1740,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1759,16 +1763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1783,16 +1787,16 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1807,17 +1811,19 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J3" s="34"/>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
@@ -1829,23 +1835,23 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1871,26 +1877,26 @@
       <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2121,35 +2127,35 @@
       <c r="R15" s="35"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="34"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -2161,21 +2167,21 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="34"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
@@ -2187,21 +2193,21 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="50" t="s">
+      <c r="M19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="34"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -2213,21 +2219,21 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="54"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="43"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="34"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
@@ -2239,286 +2245,304 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="50" t="s">
+      <c r="M21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="54"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="51"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="66"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="64"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="18"/>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="58"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="63"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="18"/>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="58"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="48" t="s">
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="45"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="54"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="48"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="48" t="s">
+      <c r="J33" s="45"/>
+      <c r="K33" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="49"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="45"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>1</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="34"/>
       <c r="J34" s="35"/>
       <c r="K34" s="34"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="A28:R28"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="M22:N22"/>
@@ -2535,43 +2559,25 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
